--- a/src/resources/黑棋先手必胜走法.xlsx
+++ b/src/resources/黑棋先手必胜走法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\程序项目\IDEA\GoBangMustWin\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{409658A9-99EE-4103-8658-41C047E2B9A9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1D0F8D72-00B8-4C4F-8779-48A081D30032}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="8964" windowWidth="17280" xWindow="1308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1956"/>
+    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="数据标注" r:id="rId1" sheetId="1"/>
@@ -20,27 +20,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
-  <si>
-    <t>H8:哈哈哈</t>
-  </si>
-  <si>
-    <t>I9:哈哈哈</t>
-  </si>
-  <si>
-    <t>F9:哈哈哈</t>
-  </si>
-  <si>
-    <t>G9:哈哈哈</t>
-  </si>
-  <si>
-    <t>H7:哈哈哈</t>
-  </si>
-  <si>
-    <t>G7:哈哈哈</t>
-  </si>
-  <si>
-    <t>F8:哈哈哈</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+  <si>
+    <t>H8:定式</t>
+  </si>
+  <si>
+    <t>I9:定式</t>
+  </si>
+  <si>
+    <t>I7:定式</t>
+  </si>
+  <si>
+    <t>G9:定式</t>
+  </si>
+  <si>
+    <t>J7:定式</t>
+  </si>
+  <si>
+    <t>G8:定式</t>
+  </si>
+  <si>
+    <t>J9:定式</t>
+  </si>
+  <si>
+    <t>G7:活三</t>
+  </si>
+  <si>
+    <t>G10:活三</t>
+  </si>
+  <si>
+    <t>J8:活三</t>
+  </si>
+  <si>
+    <t>K7:活三</t>
+  </si>
+  <si>
+    <t>L7:活三</t>
+  </si>
+  <si>
+    <t>K6:活三</t>
+  </si>
+  <si>
+    <t>K8:活三</t>
+  </si>
+  <si>
+    <t>J6:活三</t>
+  </si>
+  <si>
+    <t>I8:活三</t>
+  </si>
+  <si>
+    <t>M6:活三</t>
+  </si>
+  <si>
+    <t>L8:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>M8:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L6:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>K5:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L4:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>L5:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>M4:冲四活三防冲四活三</t>
+  </si>
+  <si>
+    <t>K4:必胜手</t>
+  </si>
+  <si>
+    <t>K7:必胜手</t>
+  </si>
+  <si>
+    <t>G10:定式</t>
+  </si>
+  <si>
+    <t>J8:定式</t>
+  </si>
+  <si>
+    <t>L7:定式</t>
+  </si>
+  <si>
+    <t>K6:定式</t>
+  </si>
+  <si>
+    <t>K8:定式</t>
+  </si>
+  <si>
+    <t>J6:定式</t>
+  </si>
+  <si>
+    <t>I8:定式</t>
+  </si>
+  <si>
+    <t>L8:冲四</t>
+  </si>
+  <si>
+    <t>M8:定式</t>
+  </si>
+  <si>
+    <t>L6:活三</t>
+  </si>
+  <si>
+    <t>K5:冲四</t>
+  </si>
+  <si>
+    <t>L4:冲四</t>
+  </si>
+  <si>
+    <t>L5:定式</t>
+  </si>
+  <si>
+    <t>M5:定式</t>
+  </si>
+  <si>
+    <t>K3:活三</t>
+  </si>
+  <si>
+    <t>M4:冲四</t>
+  </si>
+  <si>
+    <t>N3:必胜手</t>
+  </si>
+  <si>
+    <t>G10:定式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L7:定式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8:定式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6:活三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4:冲四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K4:冲四活三防冲四活三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G10:必胜手</t>
+  </si>
+  <si>
+    <t>G10:防活三</t>
+  </si>
+  <si>
+    <t>L7:防活三</t>
+  </si>
+  <si>
+    <t>M8:防冲四</t>
+  </si>
+  <si>
+    <t>L6:强活三</t>
+  </si>
+  <si>
+    <t>L4:冲四防冲四</t>
+  </si>
+  <si>
+    <t>L5:防冲四</t>
+  </si>
+  <si>
+    <t>K4:冲四活三</t>
+  </si>
+  <si>
+    <t>K3:活三防冲四</t>
+  </si>
+  <si>
+    <t>M4:必胜手</t>
   </si>
 </sst>
 </file>
@@ -64,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,8 +254,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,15 +575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +596,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,6 +681,363 @@
       </c>
       <c r="G2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
